--- a/days_media.xlsx
+++ b/days_media.xlsx
@@ -100,148 +100,148 @@
     <t>MERRY LIVMASSSSSSSSSSSSSSSSSSSSSSSSSSSSSSS COOKIE WAKE UP ITS LIVMAS ONE OF THE BEST DAY OF THE YEAR YAYAYAYAYYAYAYYAYAYAYA I HOPE YOU SANTALIVIA GOT YOU EVERYTHING YOUWANTED MAYBE HE GOT STUCK IN SOMEONES CHIMNEY SO YOUR GIFT MIGHT BE A LIL LATE IM SOWWY I WISH YOU THE HAPPIEST LIVMAS EVER AND AN AMAZING DAY TODAY YOU GONNA EAT WELL I HOPE I LOVE YOU SO MUCH AND THANK YOU FOR THAT AMAZING YEAR WE SPENT TOGETHER AGAIN ITS BEEN YEAR OF IMPROVEMENT FR AND IT WONT EVER STOP YAYAYAYYAYYAYAYAYAYAYYAYAYAYAYAY</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1ExtAIp4role70hcCF7Fz4GOl-pOIKxix</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1zhnQG7m5IWTz9OuhqVFDkFDIwcHpAvTi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1nw6vtfG7L6O9ThsJrgVeGLuc4BuT3Abf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1H5Y0hM7vgJJ7LtQVA5z7Fb1SylTomIFB</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1vTYszA7AILsutGqEYvGRqWNszzCqC7zQ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1burXtXKuKfmGjM-CK6S0rixB5h7h1O1H</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1EtjipfkwhAfiTmuKGabvhtnhvWFTjjm8</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1mPrwDS2x4yttVnGxzC76pWKpMuT5IZfJ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1E3C4_0IRPMCmPnIVTnT4APWQkCeGFK15</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1yT7UpvqquGYsRg9CPVV3nXd1JqcUREwc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1yuQEORHsMp810b5r_nI93yRLPz3f2Uvc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1tZ-7KiNMm16ZeIO-Kq2LLPpAC1veCYu5</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1ngOIYKhR92vqwTMiiNPg1iStAAwOn8pN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1JiPY4wZMGVdEiZCXssD9xylAI9P1-TSh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1O5IFaInakxMvEzS662vl2Ukwm1tX5nqv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1mibMHuV04c2Ewv5vuRGJiAEAVA5Jpv--</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1WC6QMmIdwdec3v17Z8lrRmEpQGvqy08r</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1Z1XSwxGS4FkJz12Kk9avBoOaXltT69gb</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1F1rHdqTj1EDoLPoXvETQAniGIQEWRvRa</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1wrdoyUW6RhgnMa60HDsnAizlp3dSxOob</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1SH7mPhxRr24CuJFh5V2_BdDxgWlcrpXN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=14CpHynbf9M3Rspo1rNwF7oqdu2Qu73ha</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1xhj3ulESkw95DyyALNpNblO0u-zODWJR</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=media&amp;id=1Dlyefqki3a_BjvcVL_fFHbp48QSKWdUL</t>
+    <t>https://drive.google.com/uc?export=download&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/8s9tsg.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/589giv.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/pafja3.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/bsfizu.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/lfr8dn.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/xbqtu3.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/3pbttp.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/89krbv.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/cdkzr9.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/22tl1m.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/5hqdb0.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/xe4lob.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/7k8fdn.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/ol5est.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/rci1mp.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/hp932p.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/zmyj16.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/o8g3e4.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/3v4i0a.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/300jdp.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/hnnfug.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/isupbm.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/0h157s.mp3</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/aux4ip.mp3</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,392 +632,392 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="D6" r:id="rId8"/>
-    <hyperlink ref="C7" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="D8" r:id="rId12"/>
-    <hyperlink ref="C9" r:id="rId13"/>
-    <hyperlink ref="D9" r:id="rId14"/>
-    <hyperlink ref="C10" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16"/>
-    <hyperlink ref="C11" r:id="rId17"/>
-    <hyperlink ref="D11" r:id="rId18"/>
-    <hyperlink ref="C12" r:id="rId19"/>
-    <hyperlink ref="D12" r:id="rId20"/>
-    <hyperlink ref="C13" r:id="rId21"/>
-    <hyperlink ref="D13" r:id="rId22"/>
-    <hyperlink ref="C14" r:id="rId23"/>
-    <hyperlink ref="D14" r:id="rId24"/>
-    <hyperlink ref="C15" r:id="rId25"/>
-    <hyperlink ref="D15" r:id="rId26"/>
-    <hyperlink ref="C16" r:id="rId27"/>
-    <hyperlink ref="D16" r:id="rId28"/>
-    <hyperlink ref="C17" r:id="rId29"/>
-    <hyperlink ref="D17" r:id="rId30"/>
-    <hyperlink ref="C18" r:id="rId31"/>
-    <hyperlink ref="D18" r:id="rId32"/>
-    <hyperlink ref="C19" r:id="rId33"/>
-    <hyperlink ref="D19" r:id="rId34"/>
-    <hyperlink ref="C20" r:id="rId35"/>
-    <hyperlink ref="D20" r:id="rId36"/>
-    <hyperlink ref="C21" r:id="rId37"/>
-    <hyperlink ref="D21" r:id="rId38"/>
-    <hyperlink ref="C22" r:id="rId39"/>
-    <hyperlink ref="D22" r:id="rId40"/>
-    <hyperlink ref="C23" r:id="rId41"/>
-    <hyperlink ref="D23" r:id="rId42"/>
-    <hyperlink ref="C24" r:id="rId43"/>
-    <hyperlink ref="D24" r:id="rId44"/>
-    <hyperlink ref="C25" r:id="rId45"/>
-    <hyperlink ref="D25" r:id="rId46"/>
-    <hyperlink ref="C26" r:id="rId47"/>
-    <hyperlink ref="D26" r:id="rId48"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="C21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="C22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
+    <hyperlink ref="C23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44"/>
+    <hyperlink ref="C24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46"/>
+    <hyperlink ref="C25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/days_media.xlsx
+++ b/days_media.xlsx
@@ -100,76 +100,76 @@
     <t>MERRY LIVMASSSSSSSSSSSSSSSSSSSSSSSSSSSSSSS COOKIE WAKE UP ITS LIVMAS ONE OF THE BEST DAY OF THE YEAR YAYAYAYAYYAYAYYAYAYAYA I HOPE YOU SANTALIVIA GOT YOU EVERYTHING YOUWANTED MAYBE HE GOT STUCK IN SOMEONES CHIMNEY SO YOUR GIFT MIGHT BE A LIL LATE IM SOWWY I WISH YOU THE HAPPIEST LIVMAS EVER AND AN AMAZING DAY TODAY YOU GONNA EAT WELL I HOPE I LOVE YOU SO MUCH AND THANK YOU FOR THAT AMAZING YEAR WE SPENT TOGETHER AGAIN ITS BEEN YEAR OF IMPROVEMENT FR AND IT WONT EVER STOP YAYAYAYYAYYAYAYAYAYAYYAYAYAYAYAY</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
+    <t>https://drive.google.com/uc?id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
   </si>
   <si>
     <t>https://files.catbox.moe/8s9tsg.mp3</t>

--- a/days_media.xlsx
+++ b/days_media.xlsx
@@ -100,76 +100,76 @@
     <t>MERRY LIVMASSSSSSSSSSSSSSSSSSSSSSSSSSSSSSS COOKIE WAKE UP ITS LIVMAS ONE OF THE BEST DAY OF THE YEAR YAYAYAYAYYAYAYYAYAYAYA I HOPE YOU SANTALIVIA GOT YOU EVERYTHING YOUWANTED MAYBE HE GOT STUCK IN SOMEONES CHIMNEY SO YOUR GIFT MIGHT BE A LIL LATE IM SOWWY I WISH YOU THE HAPPIEST LIVMAS EVER AND AN AMAZING DAY TODAY YOU GONNA EAT WELL I HOPE I LOVE YOU SO MUCH AND THANK YOU FOR THAT AMAZING YEAR WE SPENT TOGETHER AGAIN ITS BEEN YEAR OF IMPROVEMENT FR AND IT WONT EVER STOP YAYAYAYYAYYAYAYAYAYAYYAYAYAYAYAY</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
+    <t>https://drive.google.com/uc?export=download&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
   </si>
   <si>
     <t>https://files.catbox.moe/8s9tsg.mp3</t>
